--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -922,6 +922,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -922,7 +922,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05611848246702492</v>
+        <v>0.05600093150917274</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004022025377064864</v>
+        <v>0.003797894332003393</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02337508779512888</v>
+        <v>0.02345801242595545</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001609334138000351</v>
+        <v>0.005221932114882533</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03194602049559297</v>
+        <v>0.03214716229595473</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004352763058289133</v>
+        <v>0.0007537214999058239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03352934899900185</v>
+        <v>0.03280137249530712</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02360106585458699</v>
+        <v>0.00974658869395717</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0347109675130011</v>
+        <v>0.03424507710190266</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0153274500696704</v>
+        <v>0.0004716981132075748</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01917199214540085</v>
+        <v>0.01901517134990082</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01009526238852543</v>
+        <v>0.009539147670961423</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00510064205616615</v>
+        <v>0.004993400688266821</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02291584354010268</v>
+        <v>-0.0274969672462595</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006596642301007718</v>
+        <v>0.006560947554822076</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.007331975560081472</v>
+        <v>-0.002256873204759979</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06932520218574302</v>
+        <v>0.06954012119042026</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001162790697674332</v>
+        <v>0.006968641114982743</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06944611823606699</v>
+        <v>0.06962088788169833</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0005803830528148257</v>
+        <v>0.007540603248260114</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1470984057541208</v>
+        <v>0.1467907691748538</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.004018705246237153</v>
+        <v>-0.007482943291027833</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3906273616416079</v>
+        <v>0.3913146192422604</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0001754078231888112</v>
+        <v>-0.001666666666666594</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1129537284101369</v>
+        <v>0.1135115270894848</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002997377294867043</v>
+        <v>-0.006474909724816236</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001931378636708114</v>
+        <v>-0.0007514667567662947</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05600093150917274</v>
+        <v>0.05625589156191937</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003797894332003393</v>
+        <v>-0.01819923371647514</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02345801242595545</v>
+        <v>0.0235982418686763</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005221932114882533</v>
+        <v>-0.009590409590409466</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03214716229595473</v>
+        <v>0.03219558621609415</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0007537214999058239</v>
+        <v>-0.01543965354923738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03280137249530712</v>
+        <v>0.03314598208527361</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00974658869395717</v>
+        <v>-0.04015444015444014</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03424507710190266</v>
+        <v>0.034286995977825</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004716981132075748</v>
+        <v>-0.01272984441301261</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01901517134990082</v>
+        <v>0.01921099630248184</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009539147670961423</v>
+        <v>-0.009203583261749859</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004993400688266821</v>
+        <v>0.004859749253104026</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0274969672462595</v>
+        <v>-0.05446985446985453</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006560947554822076</v>
+        <v>0.006551063234329835</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002256873204759979</v>
+        <v>-0.001233806292412098</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06954012119042026</v>
+        <v>0.07007738216118405</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006968641114982743</v>
+        <v>-0.005190311418685201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06962088788169833</v>
+        <v>0.07019862330679164</v>
       </c>
       <c r="E11" s="1">
-        <v>0.007540603248260114</v>
+        <v>-0.005757052389176787</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1467907691748538</v>
+        <v>0.1458019074600014</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.007482943291027833</v>
+        <v>-0.01012639515115676</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3913146192422604</v>
+        <v>0.3909562188119782</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001666666666666594</v>
+        <v>-0.006238467621474508</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1135115270894848</v>
+        <v>0.1128613617603406</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.006474909724816236</v>
+        <v>-0.01403684672264705</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0007514667567662947</v>
+        <v>-0.01023174234640001</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05625589156191937</v>
+        <v>0.05580303976851266</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01819923371647514</v>
+        <v>0.00126829268292683</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0235982418686763</v>
+        <v>0.02361353264545879</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.009590409590409466</v>
+        <v>0.003429493645350057</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03219558621609415</v>
+        <v>0.03202618115299968</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01543965354923738</v>
+        <v>0.00994454006502199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03314598208527361</v>
+        <v>0.03214391195641374</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.04015444015444014</v>
+        <v>0.001206757843926098</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.034286995977825</v>
+        <v>0.034200458129346</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01272984441301261</v>
+        <v>-0.004536771728749001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01921099630248184</v>
+        <v>0.01923095244900487</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009203583261749859</v>
+        <v>-0.004458756502353167</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004859749253104026</v>
+        <v>0.004642540698790163</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.05446985446985453</v>
+        <v>0.02638522427440626</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006551063234329835</v>
+        <v>0.006610618637943072</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001233806292412098</v>
+        <v>-0.002676549310273835</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07007738216118405</v>
+        <v>0.07043432458586658</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005190311418685201</v>
+        <v>0.003478260869565153</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07019862330679164</v>
+        <v>0.07051598757089368</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005757052389176787</v>
+        <v>0.004632310364794501</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1458019074600014</v>
+        <v>0.1458174260643749</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01012639515115676</v>
+        <v>0.00619772998805268</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3909562188119782</v>
+        <v>0.3925335532789729</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.006238467621474508</v>
+        <v>-0.0006189213085764367</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1128613617603406</v>
+        <v>0.1124274730614228</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01403684672264705</v>
+        <v>0.01144019321215195</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01023174234640001</v>
+        <v>0.002891550194834114</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05580303976851266</v>
+        <v>0.05571271823427108</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00126829268292683</v>
+        <v>0.005407775504238543</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02361353264545879</v>
+        <v>0.02362619876596574</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003429493645350057</v>
+        <v>-0.004221954161640395</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03202618115299968</v>
+        <v>0.03225141022309109</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00994454006502199</v>
+        <v>-0.003408445370195023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03214391195641374</v>
+        <v>0.03208991228218983</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001206757843926098</v>
+        <v>-0.005624748895138643</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.034200458129346</v>
+        <v>0.03394713860255424</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004536771728749001</v>
+        <v>-0.01247301511153742</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01923095244900487</v>
+        <v>0.01909000660241582</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004458756502353167</v>
+        <v>-0.004976362279173863</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004642540698790163</v>
+        <v>0.004751296563825954</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02638522427440626</v>
+        <v>0.02399314481576686</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006610618637943072</v>
+        <v>0.006573916182568673</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002676549310273835</v>
+        <v>-0.003922378199834764</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07043432458586658</v>
+        <v>0.07047553000842097</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003478260869565153</v>
+        <v>-0.001733102253032692</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07051598757089368</v>
+        <v>0.07063838507487602</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004632310364794501</v>
+        <v>-0.001729106628241994</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1458174260643749</v>
+        <v>0.1462981346987826</v>
       </c>
       <c r="E12" s="1">
-        <v>0.00619772998805268</v>
+        <v>0.01120593692022265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3925335532789729</v>
+        <v>0.3911595484300432</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0006189213085764367</v>
+        <v>0.003273467221091897</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1124274730614228</v>
+        <v>0.1133858043309948</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01144019321215195</v>
+        <v>0.01583511373633284</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002891550194834114</v>
+        <v>0.003951949612642558</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05571271823427108</v>
+        <v>0.05579350697891961</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005407775504238543</v>
+        <v>-0.01138731404758442</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02362619876596574</v>
+        <v>0.02343384068016333</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004221954161640395</v>
+        <v>-0.01514233797698361</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03225141022309109</v>
+        <v>0.03201496153838355</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003408445370195023</v>
+        <v>-0.0163404902147064</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03208991228218983</v>
+        <v>0.03178380658142771</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005624748895138643</v>
+        <v>-0.02222222222222214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03394713860255424</v>
+        <v>0.0333917529048135</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01247301511153742</v>
+        <v>-0.03473402963322814</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01909000660241582</v>
+        <v>0.01892023599434144</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004976362279173863</v>
+        <v>-0.02788697174293575</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004751296563825954</v>
+        <v>0.00484614339582853</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02399314481576686</v>
+        <v>-0.0188284518828451</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006573916182568673</v>
+        <v>0.006522354779601859</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003922378199834764</v>
+        <v>-0.007875647668393881</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07047553000842097</v>
+        <v>0.07007645010871719</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001733102253032692</v>
+        <v>-0.006944444444444753</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07063838507487602</v>
+        <v>0.07023866411359847</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001729106628241994</v>
+        <v>-0.006928406466512715</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1462981346987826</v>
+        <v>0.1473552020341636</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01120593692022265</v>
+        <v>0.009026860413914761</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3911595484300432</v>
+        <v>0.390895198262688</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003273467221091897</v>
+        <v>0.004938271604938205</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1133858043309948</v>
+        <v>0.1147278826273532</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01583511373633284</v>
+        <v>0.009526166027465033</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003951949612642558</v>
+        <v>-0.0006695653408150815</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05579350697891961</v>
+        <v>0.05519512553617553</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01138731404758442</v>
+        <v>-0.008283501617488476</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02343384068016333</v>
+        <v>0.02309446079499865</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01514233797698361</v>
+        <v>-0.004305043050430557</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03201496153838355</v>
+        <v>0.0315129213325535</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0163404902147064</v>
+        <v>-0.02337260961947074</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03178380658142771</v>
+        <v>0.03109832212716095</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02222222222222214</v>
+        <v>0.02024793388429758</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0333917529048135</v>
+        <v>0.03225351860809159</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.03473402963322814</v>
+        <v>0.003522898842476252</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01892023599434144</v>
+        <v>0.01840493121183709</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02788697174293575</v>
+        <v>0.004506775597559187</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00484614339582853</v>
+        <v>0.004758083866128257</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0188284518828451</v>
+        <v>-0.0447761194029852</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006522354779601859</v>
+        <v>0.0064753226630152</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.007875647668393881</v>
+        <v>-0.001671192813870848</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07007645010871719</v>
+        <v>0.06963643423689628</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006944444444444753</v>
+        <v>0.002913752913753065</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07023866411359847</v>
+        <v>0.06979875692742518</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006928406466512715</v>
+        <v>0.002906976744186052</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1473552020341636</v>
+        <v>0.1487849781387859</v>
       </c>
       <c r="E12" s="1">
-        <v>0.009026860413914761</v>
+        <v>0.005382209615244493</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.390895198262688</v>
+        <v>0.3930887435193005</v>
       </c>
       <c r="E13" s="1">
-        <v>0.004938271604938205</v>
+        <v>0.001316251316251238</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1147278826273532</v>
+        <v>0.1158984010376316</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009526166027465033</v>
+        <v>0.003921568627450966</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0006695653408150815</v>
+        <v>0.001487714512479199</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05519512553617553</v>
+        <v>0.05465660320273161</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008283501617488476</v>
+        <v>0.004052785054119434</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02309446079499865</v>
+        <v>0.02296087891426966</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004305043050430557</v>
+        <v>0.006382540662960734</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0315129213325535</v>
+        <v>0.03073066366995872</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02337260961947074</v>
+        <v>0.001582278481012667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03109832212716095</v>
+        <v>0.03168086681217989</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02024793388429758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03225351860809159</v>
+        <v>0.03231906295247769</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003522898842476252</v>
+        <v>0.002507522567702924</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01840493121183709</v>
+        <v>0.01846041428046593</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004506775597559187</v>
+        <v>0.01049935979513461</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004758083866128257</v>
+        <v>0.004538283664339895</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0447761194029852</v>
+        <v>0.004910714285714546</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0064753226630152</v>
+        <v>0.006454898104726298</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001671192813870848</v>
+        <v>0.01025319104415146</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06963643423689628</v>
+        <v>0.06973559094936572</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002913752913753065</v>
+        <v>-0.003486345148169812</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06979875692742518</v>
+        <v>0.06989767250880644</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002906976744186052</v>
+        <v>-0.003478260869565153</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1487849781387859</v>
+        <v>0.1493635597432628</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005382209615244493</v>
+        <v>-0.007885408377342085</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3930887435193005</v>
+        <v>0.393021443390314</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001316251316251238</v>
+        <v>-0.001314521076154485</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1158984010376316</v>
+        <v>0.1161800618071013</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003921568627450966</v>
+        <v>-0.004150390624999889</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001487714512479199</v>
+        <v>-0.001882847448836378</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05465660320273161</v>
+        <v>0.05498163670169722</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004052785054119434</v>
+        <v>0.01634260398720144</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02296087891426966</v>
+        <v>0.02315101749181974</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006382540662960734</v>
+        <v>0.01370703764320758</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03073066366995872</v>
+        <v>0.03083735016387586</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001582278481012667</v>
+        <v>0.02488151658767768</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03168086681217989</v>
+        <v>0.03174062957560077</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.02106115836370992</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03231906295247769</v>
+        <v>0.03246122326360603</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002507522567702924</v>
+        <v>0.04652326163081555</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01846041428046593</v>
+        <v>0.01868942615031111</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01049935979513461</v>
+        <v>0.01533198175367434</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004538283664339895</v>
+        <v>0.004569172934365756</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004910714285714546</v>
+        <v>0.0199911150599732</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006454898104726298</v>
+        <v>0.006533382771247704</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01025319104415146</v>
+        <v>0.02112676056338025</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06973559094936572</v>
+        <v>0.06962355915093088</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003486345148169812</v>
+        <v>0.00291545189504383</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06989767250880644</v>
+        <v>0.06978594646090391</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003478260869565153</v>
+        <v>0.002908667830133549</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1493635597432628</v>
+        <v>0.1484653045979967</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.007885408377342085</v>
+        <v>-0.00350007291818577</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.393021443390314</v>
+        <v>0.3932452291961558</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001314521076154485</v>
+        <v>-0.003334503334503358</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1161800618071013</v>
+        <v>0.1159161215414886</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004150390624999889</v>
+        <v>-0.0006128953174797669</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001882847448836378</v>
+        <v>0.003181776354783894</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05498163670169722</v>
+        <v>0.0557029455019912</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01634260398720144</v>
+        <v>-0.00469801908267542</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02315101749181974</v>
+        <v>0.02339391515397593</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01370703764320758</v>
+        <v>-0.004843592330978641</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03083735016387586</v>
+        <v>0.03150439027943537</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02488151658767768</v>
+        <v>-0.005587668593448836</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03174062957560077</v>
+        <v>0.03230633247687165</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02106115836370992</v>
+        <v>-0.005950019833399489</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03246122326360603</v>
+        <v>0.03386367859451705</v>
       </c>
       <c r="E6" s="1">
-        <v>0.04652326163081555</v>
+        <v>-0.006214149139579517</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01868942615031111</v>
+        <v>0.01891578628948629</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01533198175367434</v>
+        <v>-0.004867090977162092</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004569172934365756</v>
+        <v>0.004645734109286038</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0199911150599732</v>
+        <v>-0.02395470383275244</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006533382771247704</v>
+        <v>0.006650252368983789</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02112676056338025</v>
+        <v>-0.004868154158214955</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06962355915093088</v>
+        <v>0.06960507550498246</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00291545189504383</v>
+        <v>-0.01162790697674421</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06978594646090391</v>
+        <v>0.06976694777359868</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002908667830133549</v>
+        <v>-0.01218097447795807</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1484653045979967</v>
+        <v>0.1474764281939675</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00350007291818577</v>
+        <v>-0.008488218937509173</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3932452291961558</v>
+        <v>0.3906908607254373</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003334503334503358</v>
+        <v>-0.003433703116745956</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1159161215414886</v>
+        <v>0.1154776530274667</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0006128953174797669</v>
+        <v>-0.008585796639273946</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003181776354783894</v>
+        <v>-0.006433410975816733</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0557029455019912</v>
+        <v>0.05580023786378768</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00469801908267542</v>
+        <v>-0.000291970802919761</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02339391515397593</v>
+        <v>0.02343134805771727</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004843592330978641</v>
+        <v>-0.001216791725816346</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03150439027943537</v>
+        <v>0.03153120740310309</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005587668593448836</v>
+        <v>0.00406897888006208</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03230633247687165</v>
+        <v>0.03232205019034534</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005950019833399489</v>
+        <v>-0.0103750997605746</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03386367859451705</v>
+        <v>0.03387115168432543</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006214149139579517</v>
+        <v>0.003367003367003463</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01891578628948629</v>
+        <v>0.01894560630827799</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004867090977162092</v>
+        <v>0.004765487835465487</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004645734109286038</v>
+        <v>0.004563807775647745</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02395470383275244</v>
+        <v>0.04819277108433728</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006650252368983789</v>
+        <v>0.006660729123108088</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004868154158214955</v>
+        <v>0.0008153281695881809</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06960507550498246</v>
+        <v>0.06924117107185333</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01162790697674421</v>
+        <v>-0.01647058823529424</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06976694777359868</v>
+        <v>0.06936336137374484</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01218097447795807</v>
+        <v>-0.01702877275396375</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1474764281939675</v>
+        <v>0.1471714302782137</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.008488218937509173</v>
+        <v>0.005239852398523981</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3906908607254373</v>
+        <v>0.3918704076811539</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003433703116745956</v>
+        <v>-0.0008834702712252618</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1154776530274667</v>
+        <v>0.1152274911887216</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008585796639273946</v>
+        <v>0.0002474328838302231</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.006433410975816733</v>
+        <v>-0.001690299176165699</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05580023786378768</v>
+        <v>0.05587839703200414</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.000291970802919761</v>
+        <v>0.006084501557632294</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02343134805771727</v>
+        <v>0.02344246176107796</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001216791725816346</v>
+        <v>-0.002842639593908736</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03153120740310309</v>
+        <v>0.03171311186695153</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00406897888006208</v>
+        <v>0.004438440756464601</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03232205019034534</v>
+        <v>0.03204086434175471</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0103750997605746</v>
+        <v>-0.006048387096774244</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03387115168432543</v>
+        <v>0.03404273837872682</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003367003367003463</v>
+        <v>0.009827420901246553</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01894560630827799</v>
+        <v>0.01906812219591438</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004765487835465487</v>
+        <v>-0.001497753369945176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004563807775647745</v>
+        <v>0.004791849979124478</v>
       </c>
       <c r="E8" s="1">
-        <v>0.04819277108433728</v>
+        <v>0.03448275862068972</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006660729123108088</v>
+        <v>0.006677446685824093</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0008153281695881809</v>
+        <v>0.006109979633401208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06924117107185333</v>
+        <v>0.06821603375986486</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01647058823529424</v>
+        <v>0.01555023923444998</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06936336137374484</v>
+        <v>0.06829763188637188</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01702877275396375</v>
+        <v>0.0155316606929512</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1471714302782137</v>
+        <v>0.1481930774869409</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005239852398523981</v>
+        <v>-0.005579619704867644</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3918704076811539</v>
+        <v>0.3921871153838308</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0008834702712252618</v>
+        <v>-0.001414802369793966</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1152274911887216</v>
+        <v>0.1154511492416134</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0002474328838302231</v>
+        <v>-0.001236858379715433</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001690299176165699</v>
+        <v>0.001329369477676812</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05587839703200414</v>
+        <v>0.05640035411919588</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006084501557632294</v>
+        <v>0.01165902140672781</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02344246176107796</v>
+        <v>0.02346309169773744</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002842639593908736</v>
+        <v>0.01507537688442206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03171311186695153</v>
+        <v>0.03184647288926499</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004438440756464601</v>
+        <v>0.002094440213252113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03204086434175471</v>
+        <v>0.03211799122247929</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006048387096774244</v>
+        <v>-0.01195695496213633</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03404273837872682</v>
+        <v>0.03440130544397627</v>
       </c>
       <c r="E6" s="1">
-        <v>0.009827420901246553</v>
+        <v>0.02397179788484149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01906812219591438</v>
+        <v>0.01893082413562172</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001497753369945176</v>
+        <v>0.005119581464872791</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004791849979124478</v>
+        <v>0.004887329997857498</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03448275862068972</v>
+        <v>-0.01530190239867657</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006677446685824093</v>
+        <v>0.006721257796888118</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006109979633401208</v>
+        <v>0.01242983159583</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06821603375986486</v>
+        <v>0.06944940393977818</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01555023923444998</v>
+        <v>-0.001164144353899887</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06829763188637188</v>
+        <v>0.0695706776369955</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0155316606929512</v>
+        <v>-0.0005810575246950611</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1481930774869409</v>
+        <v>0.1482341875942398</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005579619704867644</v>
+        <v>-0.004363319031343127</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3921871153838308</v>
+        <v>0.3895149456356965</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001414802369793966</v>
+        <v>-0.002822865208186309</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1154511492416134</v>
+        <v>0.1144621578902689</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001236858379715433</v>
+        <v>-0.004820766378244801</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001329369477676812</v>
+        <v>-0.0007951175209500727</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05640035411919588</v>
+        <v>0.05710333091413305</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01165902140672781</v>
+        <v>0.0003778575477044743</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02346309169773744</v>
+        <v>0.0238357588774632</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01507537688442206</v>
+        <v>-0.008712871287128721</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03184647288926499</v>
+        <v>0.03193856833801412</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002094440213252113</v>
+        <v>0.004750142504275079</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03211799122247929</v>
+        <v>0.03175921015240153</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01195695496213633</v>
+        <v>-0.003227107704719567</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03440130544397627</v>
+        <v>0.035253997656274</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02397179788484149</v>
+        <v>-0.007114987376635407</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01893082413562172</v>
+        <v>0.01904288336219191</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005119581464872791</v>
+        <v>0.001598691303862809</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004887329997857498</v>
+        <v>0.004816374134702111</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01530190239867657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006721257796888118</v>
+        <v>0.006810216822132342</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01242983159583</v>
+        <v>0.004752475247524757</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06944940393977818</v>
+        <v>0.06942375485215306</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001164144353899887</v>
+        <v>0.009324009324009452</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0695706776369955</v>
+        <v>0.06958558178654037</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0005810575246950611</v>
+        <v>0.008139534883720989</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1482341875942398</v>
+        <v>0.1477048372464379</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.004363319031343127</v>
+        <v>0.006792783580454431</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3895149456356965</v>
+        <v>0.388724479091741</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002822865208186309</v>
+        <v>0.004865534324133058</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1144621578902689</v>
+        <v>0.1140010067658156</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004820766378244801</v>
+        <v>-0.003229412495342254</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0007951175209500727</v>
+        <v>0.003415323736299714</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05710333091413305</v>
+        <v>0.05702855672235364</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003778575477044743</v>
+        <v>0.005812305075134638</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0238357588774632</v>
+        <v>0.02365073579692638</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008712871287128721</v>
+        <v>0.005782652043868408</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03193856833801412</v>
+        <v>0.03159652067056119</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004750142504275079</v>
+        <v>0.01036269430051795</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03175921015240153</v>
+        <v>0.03177101263955147</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003227107704719567</v>
+        <v>-0.01208702659145844</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.035253997656274</v>
+        <v>0.03500618806461457</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007114987376635407</v>
+        <v>0.01362586605080862</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01904288336219191</v>
+        <v>0.01892530463670301</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001598691303862809</v>
+        <v>-0.0007475703962124269</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004816374134702111</v>
+        <v>0.00467692374027241</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.01296456352636133</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006810216822132342</v>
+        <v>0.006749268514844282</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004752475247524757</v>
+        <v>0.003793172289878077</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06942375485215306</v>
+        <v>0.06981026187943347</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009324009324009452</v>
+        <v>0.01042269832078735</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06958558178654037</v>
+        <v>0.06989110757935173</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008139534883720989</v>
+        <v>0.01098901098901117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1477048372464379</v>
+        <v>0.1475487920641861</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006792783580454431</v>
+        <v>0.008255406195207371</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.388724479091741</v>
+        <v>0.3900481638257263</v>
       </c>
       <c r="E13" s="1">
-        <v>0.004865534324133058</v>
+        <v>0.003435517970401758</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1140010067658156</v>
+        <v>0.1132971638654754</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003229412495342254</v>
+        <v>0.003496503496503323</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003415323736299714</v>
+        <v>0.005410598467030736</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05702855672235364</v>
+        <v>0.05705134218743718</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005812305075134638</v>
+        <v>0.0060606060606061</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02365073579692638</v>
+        <v>0.02365948778428508</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005782652043868408</v>
+        <v>0.002379064234734329</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03159652067056119</v>
+        <v>0.0317521476339172</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01036269430051795</v>
+        <v>-0.008547008547008406</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03177101263955147</v>
+        <v>0.03121808703110551</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01208702659145844</v>
+        <v>-0.007748776508972322</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03500618806461457</v>
+        <v>0.03529222563222859</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01362586605080862</v>
+        <v>-0.01025290498974729</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01892530463670301</v>
+        <v>0.01880938660090864</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0007475703962124269</v>
+        <v>0.005788029925187121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00467692374027241</v>
+        <v>0.00471206293471997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01296456352636133</v>
+        <v>0.001279863481228549</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006749268514844282</v>
+        <v>0.006738410817910128</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003793172289878077</v>
+        <v>0.0103420843277644</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06981026187943347</v>
+        <v>0.07015827492394494</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01042269832078735</v>
+        <v>-0.008022922636103269</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06989110757935173</v>
+        <v>0.07027889086937293</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01098901098901117</v>
+        <v>-0.007437070938215107</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1475487920641861</v>
+        <v>0.147966281142367</v>
       </c>
       <c r="E12" s="1">
-        <v>0.008255406195207371</v>
+        <v>-0.003622925874936622</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3900481638257263</v>
+        <v>0.3892819330715521</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003435517970401758</v>
+        <v>-0.002633658151172003</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1132971638654754</v>
+        <v>0.1130814693702508</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003496503496503323</v>
+        <v>-0.005973120955699351</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.005410598467030736</v>
+        <v>-0.003610792446761435</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05705134218743718</v>
+        <v>0.05687126241897092</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0060606060606061</v>
+        <v>0.01192982456140346</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02365948778428508</v>
+        <v>0.02345291042842685</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002379064234734329</v>
+        <v>0.009132420091324311</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0317521476339172</v>
+        <v>0.03129116722778537</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008547008547008406</v>
+        <v>0.007843887507174241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03121808703110551</v>
+        <v>0.03034397801509982</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007748776508972322</v>
+        <v>0.01124531445231147</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03529222563222859</v>
+        <v>0.03574308955960025</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01025290498974729</v>
+        <v>0.01607860652076809</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01880938660090864</v>
+        <v>0.01865244375149453</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005788029925187121</v>
+        <v>0.01397903145282053</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00471206293471997</v>
+        <v>0.004594599358585281</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001279863481228549</v>
+        <v>0.01976112920738338</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006738410817910128</v>
+        <v>0.006833863743772014</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0103420843277644</v>
+        <v>0.0118746350009733</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07015827492394494</v>
+        <v>0.07052036539952394</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008022922636103269</v>
+        <v>0.009620826259196358</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07027889086937293</v>
+        <v>0.07060018471519969</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007437070938215107</v>
+        <v>0.009609949123798645</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.147966281142367</v>
+        <v>0.1484639271568925</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003622925874936622</v>
+        <v>0.002007168458781461</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3892819330715521</v>
+        <v>0.3884546681162741</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002633658151172003</v>
+        <v>0.0005239717055278703</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1130814693702508</v>
+        <v>0.1141775401083747</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005973120955699351</v>
+        <v>0.00477122583802303</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003610792446761435</v>
+        <v>0.004889930826585287</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05687126241897092</v>
+        <v>0.05726968181965611</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01192982456140346</v>
+        <v>-0.007813222376329199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02345291042842685</v>
+        <v>0.02355192497486343</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009132420091324311</v>
+        <v>-0.004131418453669156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03129116722778537</v>
+        <v>0.03138315018993915</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007843887507174241</v>
+        <v>-0.001708428246013582</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03034397801509982</v>
+        <v>0.03053588721341165</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01124531445231147</v>
+        <v>-0.01317957166392103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03574308955960025</v>
+        <v>0.03614106134250143</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01607860652076809</v>
+        <v>-0.01230769230769235</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01865244375149453</v>
+        <v>0.01882115271451805</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01397903145282053</v>
+        <v>-0.008124076809453484</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004594599358585281</v>
+        <v>0.004662594067702931</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01976112920738338</v>
+        <v>0.02427597955706995</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006833863743772014</v>
+        <v>0.006881363987484337</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0118746350009733</v>
+        <v>0.003847633705271303</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07052036539952394</v>
+        <v>0.07085236641211269</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009620826259196358</v>
+        <v>-0.006165919282511312</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07060018471519969</v>
+        <v>0.07093179731616213</v>
       </c>
       <c r="E11" s="1">
-        <v>0.009609949123798645</v>
+        <v>-0.00615901455767065</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1484639271568925</v>
+        <v>0.1480380235737685</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002007168458781461</v>
+        <v>0.004364000572327775</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3884546681162741</v>
+        <v>0.3867669437702011</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0005239717055278703</v>
+        <v>0.0007855459544383603</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1141775401083747</v>
+        <v>0.1141640526176785</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00477122583802303</v>
+        <v>0.004748569341288089</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004889930826585287</v>
+        <v>-0.0008406437345234163</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05726968181965611</v>
+        <v>0.0568700284933126</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007813222376329199</v>
+        <v>0.01211499930105764</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02355192497486343</v>
+        <v>0.02347435568743346</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004131418453669156</v>
+        <v>0.01145792177005145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03138315018993915</v>
+        <v>0.03135589346508758</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001708428246013582</v>
+        <v>0.01369081574443798</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03053588721341165</v>
+        <v>0.03015879009749735</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01317957166392103</v>
+        <v>0.007095158597662632</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03614106134250143</v>
+        <v>0.03572628135440288</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01230769230769235</v>
+        <v>0.02069425901201605</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01882115271451805</v>
+        <v>0.01868395477373951</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008124076809453484</v>
+        <v>0.01390667659468847</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004662594067702931</v>
+        <v>0.004779801215917832</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02427597955706995</v>
+        <v>0.01850311850311837</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006881363987484337</v>
+        <v>0.006913652874472417</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003847633705271303</v>
+        <v>0.01092372556535071</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07085236641211269</v>
+        <v>0.07047474058895896</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006165919282511312</v>
+        <v>-0.004512126339537459</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07093179731616213</v>
+        <v>0.07055423832227985</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.00615901455767065</v>
+        <v>-0.003943661971831047</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1480380235737685</v>
+        <v>0.1488091570789088</v>
       </c>
       <c r="E12" s="1">
-        <v>0.004364000572327775</v>
+        <v>-0.002350594771707293</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3867669437702011</v>
+        <v>0.3873964293593079</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0007855459544383603</v>
+        <v>-0.001308215593929796</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1141640526176785</v>
+        <v>0.1148026766886809</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004748569341288089</v>
+        <v>0.0004847309743092332</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0008406437345234163</v>
+        <v>0.001367168893597004</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0568700284933126</v>
+        <v>0.05748042340189435</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01211499930105764</v>
+        <v>0.003637033285760261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02347435568743346</v>
+        <v>0.02371090620509983</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01145792177005145</v>
+        <v>0.001562499999999911</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03135589346508758</v>
+        <v>0.03174178484415415</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01369081574443798</v>
+        <v>0.001313074470080666</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03015879009749735</v>
+        <v>0.03033130348173024</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007095158597662632</v>
+        <v>0.007459593866556258</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03572628135440288</v>
+        <v>0.0364158236928994</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02069425901201605</v>
+        <v>0.02507085240898199</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01868395477373951</v>
+        <v>0.01891792249512089</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01390667659468847</v>
+        <v>0.007603371333870346</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004779801215917832</v>
+        <v>0.004861595821656699</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01850311850311837</v>
+        <v>0.005103082261685987</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006913652874472417</v>
+        <v>0.006979633383476651</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01092372556535071</v>
+        <v>-0.003981042654028433</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07047474058895896</v>
+        <v>0.070060964484377</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.004512126339537459</v>
+        <v>0.002832861189801639</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07055423832227985</v>
+        <v>0.07018004827670173</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003943661971831047</v>
+        <v>0.002828054298642524</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1488091570789088</v>
+        <v>0.1482566751377804</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002350594771707293</v>
+        <v>-0.001427959445951643</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3873964293593079</v>
+        <v>0.3863614100079382</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001308215593929796</v>
+        <v>-0.001047943411055741</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1148026766886809</v>
+        <v>0.1147015087671704</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0004847309743092332</v>
+        <v>0.002664728682170603</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001367168893597004</v>
+        <v>0.001653888633935674</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05748042340189435</v>
+        <v>0.05759422717737765</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003637033285760261</v>
+        <v>-0.0004587155963302614</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02371090620509983</v>
+        <v>0.02370874287567831</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001562499999999911</v>
+        <v>-0.003120124804992352</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03174178484415415</v>
+        <v>0.03173098465660066</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001313074470080666</v>
+        <v>0.001498688647433521</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03033130348173024</v>
+        <v>0.03050710732908138</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007459593866556258</v>
+        <v>0.008227067050596615</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0364158236928994</v>
+        <v>0.03726716369560042</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02507085240898199</v>
+        <v>-0.004891535516801326</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01891792249512089</v>
+        <v>0.01903028850685467</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007603371333870346</v>
+        <v>0.007147559941595105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004861595821656699</v>
+        <v>0.004878336719404947</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005103082261685987</v>
+        <v>-0.003249390739236357</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006979633383476651</v>
+        <v>0.006940368568576656</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003981042654028433</v>
+        <v>-0.002664636467453407</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.070060964484377</v>
+        <v>0.07014342805318242</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002832861189801639</v>
+        <v>-0.002824858757062176</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07018004827670173</v>
+        <v>0.07026231521937425</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002828054298642524</v>
+        <v>-0.002820078962210926</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1482566751377804</v>
+        <v>0.1478005250096888</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001427959445951643</v>
+        <v>-0.008723008723008907</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3863614100079382</v>
+        <v>0.3853192499860456</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001047943411055741</v>
+        <v>-0.00393391030684509</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1147015087671704</v>
+        <v>0.1148172622025341</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002664728682170603</v>
+        <v>-0.003382459531287796</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001653888633935674</v>
+        <v>-0.003472205366113812</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05759422717737765</v>
+        <v>0.05776839152616171</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0004587155963302614</v>
+        <v>-0.0001376778338687545</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02370874287567831</v>
+        <v>0.02371711934800563</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003120124804992352</v>
+        <v>0.002738654147104835</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03173098465660066</v>
+        <v>0.03188926560222285</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001498688647433521</v>
+        <v>0.008043396932285729</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03050710732908138</v>
+        <v>0.03086526187450464</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008227067050596615</v>
+        <v>0.02855977152182776</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03726716369560042</v>
+        <v>0.03721408498635759</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004891535516801326</v>
+        <v>0.00854883522120109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01903028850685467</v>
+        <v>0.01923308987252559</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007147559941595105</v>
+        <v>0.002289223762576675</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004878336719404947</v>
+        <v>0.004879427471496127</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003249390739236357</v>
+        <v>-0.02037489812550941</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006940368568576656</v>
+        <v>0.006945992923292504</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002664636467453407</v>
+        <v>-0.001526717557251867</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07014342805318242</v>
+        <v>0.07018899337563704</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002824858757062176</v>
+        <v>0.003399433427762277</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07026231521937425</v>
+        <v>0.07030829478080809</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002820078962210926</v>
+        <v>0.002262443438913797</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1478005250096888</v>
+        <v>0.1470217494481332</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.008723008723008907</v>
+        <v>0.000649163300634692</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3853192499860456</v>
+        <v>0.3851407263137151</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00393391030684509</v>
+        <v>0.001316482359136506</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1148172622025341</v>
+        <v>0.1148276024771399</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003382459531287796</v>
+        <v>0.004363636363636347</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003472205366113812</v>
+        <v>0.002948355276694903</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05776839152616171</v>
+        <v>0.05759064043054866</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0001376778338687545</v>
+        <v>0.003809611236058164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02371711934800563</v>
+        <v>0.0237121604618459</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002738654147104835</v>
+        <v>0.0009754194303550623</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03188926560222285</v>
+        <v>0.03205126510673843</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008043396932285729</v>
+        <v>-0.002226758211170909</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03086526187450464</v>
+        <v>0.03165344111147531</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02855977152182776</v>
+        <v>0.003966679888932845</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03721408498635759</v>
+        <v>0.03742188904279053</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00854883522120109</v>
+        <v>-0.005085823267641287</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01923308987252559</v>
+        <v>0.01922045000370069</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002289223762576675</v>
+        <v>-0.003489771359807214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004879427471496127</v>
+        <v>0.004765957896740222</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02037489812550941</v>
+        <v>-0.01539101497504158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006945992923292504</v>
+        <v>0.006915000475802785</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001526717557251867</v>
+        <v>0.004587155963302836</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07018899337563704</v>
+        <v>0.07022056102435054</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003399433427762277</v>
+        <v>-0.004517221908526436</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07030829478080809</v>
+        <v>0.07026021125643654</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002262443438913797</v>
+        <v>-0.003386004514672636</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1470217494481332</v>
+        <v>0.1466847119278472</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000649163300634692</v>
+        <v>-0.00295538095581338</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3851407263137151</v>
+        <v>0.3845140731890417</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001316482359136506</v>
+        <v>-0.001753002015952299</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1148276024771399</v>
+        <v>0.1149896380726815</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004363636363636347</v>
+        <v>-0.005189476224957579</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002948355276694903</v>
+        <v>-0.002261715321906888</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05759064043054866</v>
+        <v>0.05794108462027825</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003809611236058164</v>
+        <v>-0.007315957933241912</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0237121604618459</v>
+        <v>0.02378909392211401</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009754194303550623</v>
+        <v>-0.01364256480218295</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03205126510673843</v>
+        <v>0.03205238806617656</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002226758211170909</v>
+        <v>-0.01469220755067879</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03165344111147531</v>
+        <v>0.03185103816077459</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003966679888932845</v>
+        <v>-0.02331094429079428</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03742188904279053</v>
+        <v>0.0373159660208788</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005085823267641287</v>
+        <v>-0.02428115015974452</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01922045000370069</v>
+        <v>0.01919679270795422</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003489771359807214</v>
+        <v>-0.0139983093829249</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004765957896740222</v>
+        <v>0.004703242362695426</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01539101497504158</v>
+        <v>-0.0181664554288129</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006915000475802785</v>
+        <v>0.006962467781531379</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004587155963302836</v>
+        <v>-0.007229832572298367</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07022056102435054</v>
+        <v>0.07006181905730491</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.004517221908526436</v>
+        <v>-0.002836074872376582</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07026021125643654</v>
+        <v>0.07018103939602975</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003386004514672636</v>
+        <v>-0.003397508493771184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1466847119278472</v>
+        <v>0.1465827311326363</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00295538095581338</v>
+        <v>0.002313475997686387</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3845140731890417</v>
+        <v>0.3847101240255807</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001753002015952299</v>
+        <v>0.0008780402142416488</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1149896380726815</v>
+        <v>0.1146522127460451</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005189476224957579</v>
+        <v>-0.004488657042339028</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002261715321906888</v>
+        <v>-0.003547281958419357</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05794108462027825</v>
+        <v>0.05772194610059739</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007315957933241912</v>
+        <v>0.001750345462920189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02378909392211401</v>
+        <v>0.02354808135082754</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01364256480218295</v>
+        <v>0.01047223868800651</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03205238806617656</v>
+        <v>0.03169389490981903</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01469220755067879</v>
+        <v>-0.0003775009437523291</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03185103816077459</v>
+        <v>0.03121930405864645</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02331094429079428</v>
+        <v>0.02548543689320404</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0373159660208788</v>
+        <v>0.03653950738187517</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02428115015974452</v>
+        <v>0.01506221349050429</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01919679270795422</v>
+        <v>0.01899545228966755</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0139983093829249</v>
+        <v>0.01211500683398081</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004703242362695426</v>
+        <v>0.004634240076155746</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0181664554288129</v>
+        <v>-0.01419965576592075</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006962467781531379</v>
+        <v>0.006936736866718498</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.007229832572298367</v>
+        <v>0.003832886163281035</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07006181905730491</v>
+        <v>0.07011182490431843</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002836074872376582</v>
+        <v>0.0130830489192264</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07018103939602975</v>
+        <v>0.07019158807258273</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003397508493771184</v>
+        <v>0.01249999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1465827311326363</v>
+        <v>0.1474448753088314</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002313475997686387</v>
+        <v>-0.0008655510675128486</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3847101240255807</v>
+        <v>0.3864186508940142</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0008780402142416488</v>
+        <v>0.001052723923151033</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1146522127460451</v>
+        <v>0.1145438977859459</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004488657042339028</v>
+        <v>0.0003655861564708651</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003547281958419357</v>
+        <v>0.003988304645690111</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05772194610059739</v>
+        <v>0.05759327990127471</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001750345462920189</v>
+        <v>-0.007494942063637988</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02354808135082754</v>
+        <v>0.02370015902503486</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01047223868800651</v>
+        <v>-0.01212358232303479</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03169389490981903</v>
+        <v>0.03155607519328625</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0003775009437523291</v>
+        <v>-0.01227341389728087</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03121930405864645</v>
+        <v>0.0318877635465893</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02548543689320404</v>
+        <v>-0.0003944773175543759</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03653950738187517</v>
+        <v>0.0369425351583034</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01506221349050429</v>
+        <v>0.004731182795698841</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01899545228966755</v>
+        <v>0.01914920944298866</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01211500683398081</v>
+        <v>0.002662149080348453</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004634240076155746</v>
+        <v>0.004550287529444789</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01419965576592075</v>
+        <v>-0.04103011785246624</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006936736866718498</v>
+        <v>0.006935663052300831</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003832886163281035</v>
+        <v>0.004772814051164476</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07011182490431843</v>
+        <v>0.0707469409859552</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0130830489192264</v>
+        <v>-0.007860752386299685</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07019158807258273</v>
+        <v>0.07078666414203941</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01249999999999996</v>
+        <v>-0.006734006734006814</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1474448753088314</v>
+        <v>0.1467320421542132</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0008655510675128486</v>
+        <v>0.006786023678891029</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3864186508940142</v>
+        <v>0.3852887939652581</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001052723923151033</v>
+        <v>0.001314521076154707</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1145438977859459</v>
+        <v>0.1141305859033112</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0003655861564708651</v>
+        <v>0.004019978072846708</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003988304645690111</v>
+        <v>-0.0001185074156512256</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05759327990127471</v>
+        <v>0.05716839648408403</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007494942063637988</v>
+        <v>-0.0001853138753763472</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02370015902503486</v>
+        <v>0.02341560311863734</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01212358232303479</v>
+        <v>0.01187648456056989</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03155607519328625</v>
+        <v>0.03117246859015742</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01227341389728087</v>
+        <v>0.003823360734085179</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0318877635465893</v>
+        <v>0.03187896244061512</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0003944773175543759</v>
+        <v>0.02959747434885562</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0369425351583034</v>
+        <v>0.03712171624373044</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004731182795698841</v>
+        <v>0.02878852739726034</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01914920944298866</v>
+        <v>0.0192024631275761</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002662149080348453</v>
+        <v>0.007965242577842258</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004550287529444789</v>
+        <v>0.004364105874757908</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.04103011785246624</v>
+        <v>-0.001365498406918353</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006935663052300831</v>
+        <v>0.00696959163066329</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004772814051164476</v>
+        <v>-0.001330039901197066</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0707469409859552</v>
+        <v>0.07019913591895516</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.007860752386299685</v>
+        <v>0.004527447651386574</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07078666414203941</v>
+        <v>0.07031831951134727</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006734006734006814</v>
+        <v>0.003389830508474745</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1467320421542132</v>
+        <v>0.1477452781778153</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006786023678891029</v>
+        <v>0.001649218413882103</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3852887939652581</v>
+        <v>0.3858409892238169</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001314521076154707</v>
+        <v>0.001225275687029681</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1141305859033112</v>
+        <v>0.1146029696578438</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004019978072846708</v>
+        <v>0.009949041494782929</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0001185074156512256</v>
+        <v>0.004949429739616873</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05716839648408403</v>
+        <v>0.05687629715038708</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0001853138753763472</v>
+        <v>0.005097076131782563</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02341560311863734</v>
+        <v>0.02357700543567781</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01187648456056989</v>
+        <v>0.008215962441314506</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03117246859015742</v>
+        <v>0.0311375391204085</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003823360734085179</v>
+        <v>0.009902875642734843</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03187896244061512</v>
+        <v>0.03266084664799868</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02959747434885562</v>
+        <v>0.007282483710233878</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03712171624373044</v>
+        <v>0.0380023060451326</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02878852739726034</v>
+        <v>0.02090918547799858</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0192024631275761</v>
+        <v>0.01926008894745511</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007965242577842258</v>
+        <v>0.01293582375478919</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004364105874757908</v>
+        <v>0.004336682589359249</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001365498406918353</v>
+        <v>-0.01321786690975413</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.00696959163066329</v>
+        <v>0.006926041838247406</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001330039901197066</v>
+        <v>0.006849315068493178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07019913591895516</v>
+        <v>0.07016965903475539</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004527447651386574</v>
+        <v>0.01633802816901397</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07031831951134727</v>
+        <v>0.07020919123702851</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003389830508474745</v>
+        <v>0.01689189189189166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1477452781778153</v>
+        <v>0.1472600889474551</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001649218413882103</v>
+        <v>0.001646502970863883</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3858409892238169</v>
+        <v>0.3844111349036403</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001225275687029681</v>
+        <v>0.0004370629370629153</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1146029696578438</v>
+        <v>0.1151731181024543</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009949041494782929</v>
+        <v>-0.002522825564632347</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004949429739616873</v>
+        <v>0.004515987481469086</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05687629715038708</v>
+        <v>0.05690919873797536</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005097076131782563</v>
+        <v>0.008482780876861495</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02357700543567781</v>
+        <v>0.02366384758734815</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008215962441314506</v>
+        <v>0.01164144353899887</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0311375391204085</v>
+        <v>0.03130451948005336</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009902875642734843</v>
+        <v>0.008862907788044438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03266084664799868</v>
+        <v>0.0327507965444722</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007282483710233878</v>
+        <v>0.01636225266362246</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0380023060451326</v>
+        <v>0.03862248465362295</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02090918547799858</v>
+        <v>0.02873446097411847</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01926008894745511</v>
+        <v>0.01942152669216811</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01293582375478919</v>
+        <v>0.01276116897792456</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004336682589359249</v>
+        <v>0.004260122237369761</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01321786690975413</v>
+        <v>0.01801385681293333</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006926041838247406</v>
+        <v>0.006942129909210401</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006849315068493178</v>
+        <v>0.007558578987150399</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07016965903475539</v>
+        <v>0.07099547820983879</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01633802816901397</v>
+        <v>0.009423503325942661</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07020919123702851</v>
+        <v>0.07107418716572553</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01689189189189166</v>
+        <v>0.008859357696566983</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1472600889474551</v>
+        <v>0.1468394281023007</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001646502970863883</v>
+        <v>-0.004931389365351646</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3844111349036403</v>
+        <v>0.3828502000525855</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0004370629370629153</v>
+        <v>0.0003494975972040404</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1151731181024543</v>
+        <v>0.1143660806273293</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002522825564632347</v>
+        <v>0.002890521498253529</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004515987481469086</v>
+        <v>0.004097365234755346</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05690919873797536</v>
+        <v>0.05715775081964215</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008482780876861495</v>
+        <v>-0.01174857142857144</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02366384758734815</v>
+        <v>0.02384164102188913</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01164144353899887</v>
+        <v>-0.005178365937859697</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03130451948005336</v>
+        <v>0.03145309373675165</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008862907788044438</v>
+        <v>-0.01869158878504673</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0327507965444722</v>
+        <v>0.03315084224395451</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01636225266362246</v>
+        <v>-0.002620741295394913</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03862248465362295</v>
+        <v>0.03957014758457877</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02873446097411847</v>
+        <v>0.00693343898573695</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01942152669216811</v>
+        <v>0.01958910436090775</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01276116897792456</v>
+        <v>-0.0060690943043884</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004260122237369761</v>
+        <v>0.004319166267651131</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01801385681293333</v>
+        <v>-0.02994555353902006</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006942129909210401</v>
+        <v>0.006966060054179015</v>
       </c>
       <c r="E9" s="1">
-        <v>0.007558578987150399</v>
+        <v>0.0003750937734434689</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07099547820983879</v>
+        <v>0.07137206690918974</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009423503325942661</v>
+        <v>0.002745744096650293</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07107418716572553</v>
+        <v>0.07141126079546604</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008859357696566983</v>
+        <v>0.003293084522502987</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1468394281023007</v>
+        <v>0.1455190609667433</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.004931389365351646</v>
+        <v>-0.01012712777418656</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3828502000525855</v>
+        <v>0.3814211833810083</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0003494975972040404</v>
+        <v>-0.002008909075028265</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1143660806273293</v>
+        <v>0.1142286218580384</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002890521498253529</v>
+        <v>-0.001441095232376455</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004097365234755346</v>
+        <v>-0.003414440726105972</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05715775081964215</v>
+        <v>0.05667975857747388</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01174857142857144</v>
+        <v>-0.008048848182070523</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02384164102188913</v>
+        <v>0.02379944206436186</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005178365937859697</v>
+        <v>-0.0119529593213803</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03145309373675165</v>
+        <v>0.0309709338605056</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01869158878504673</v>
+        <v>-0.002666666666666595</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03315084224395451</v>
+        <v>0.03317724419647305</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002620741295394913</v>
+        <v>-0.02327327327327333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03957014758457877</v>
+        <v>0.03998101760328888</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00693343898573695</v>
+        <v>0.002951013181192064</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01958910436090775</v>
+        <v>0.01953692390785672</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0060690943043884</v>
+        <v>-0.009159229685298365</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004319166267651131</v>
+        <v>0.004204181371032443</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02994555353902006</v>
+        <v>0.002338634237605053</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006966060054179015</v>
+        <v>0.006992548622727488</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003750937734434689</v>
+        <v>-0.008998875140607487</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07137206690918974</v>
+        <v>0.07181323838639142</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002745744096650293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07141126079546604</v>
+        <v>0.0718918947263546</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003293084522502987</v>
+        <v>0.0005470459518597259</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1455190609667433</v>
+        <v>0.1445388903163558</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01012712777418656</v>
+        <v>-0.005659555942533756</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3814211833810083</v>
+        <v>0.3819591196782431</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002008909075028265</v>
+        <v>-0.001662874146683091</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1142286218580384</v>
+        <v>0.1144548066889352</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001441095232376455</v>
+        <v>-0.00541190619362597</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003414440726105972</v>
+        <v>-0.003742730843248387</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05667975857747388</v>
+        <v>0.05643477196736131</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008048848182070523</v>
+        <v>-0.02252378287632895</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02379944206436186</v>
+        <v>0.02360330913459577</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0119529593213803</v>
+        <v>-0.01756097560975611</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0309709338605056</v>
+        <v>0.03100438577445829</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002666666666666595</v>
+        <v>-0.02559205500381967</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03317724419647305</v>
+        <v>0.03252684033438734</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02327327327327333</v>
+        <v>0.002690238278247437</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03998101760328888</v>
+        <v>0.0402496457036385</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002951013181192064</v>
+        <v>-0.03315025500196156</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01953692390785672</v>
+        <v>0.0194307046319726</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009159229685298365</v>
+        <v>-0.02346527613178462</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004204181371032443</v>
+        <v>0.00422984458331195</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002338634237605053</v>
+        <v>-0.03359776014932325</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006992548622727488</v>
+        <v>0.006955656701629172</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008998875140607487</v>
+        <v>-0.0332954975406734</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07181323838639142</v>
+        <v>0.07208302575014114</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>-0.009857612267251015</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0718918947263546</v>
+        <v>0.07220145350329031</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0005470459518597259</v>
+        <v>-0.01038819026790583</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1445388903163558</v>
+        <v>0.1442607937028016</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005659555942533756</v>
+        <v>-0.010507880910683</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3819591196782431</v>
+        <v>0.3827565243823006</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001662874146683091</v>
+        <v>-0.004821600771456103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1144548066889352</v>
+        <v>0.1142630438301114</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00541190619362597</v>
+        <v>-0.00858524788391779</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003742730843248387</v>
+        <v>-0.01035848080878254</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05643477196736131</v>
+        <v>0.05574103990905283</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02252378287632895</v>
+        <v>0.0110204665807927</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02360330913459577</v>
+        <v>0.02343152702154676</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01756097560975611</v>
+        <v>0.006951340615690249</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03100438577445829</v>
+        <v>0.03052713456590678</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02559205500381967</v>
+        <v>-0.001176009408075274</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03252684033438734</v>
+        <v>0.03295571644162561</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002690238278247437</v>
+        <v>-0.009582215408202366</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0402496457036385</v>
+        <v>0.03932268294142285</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.03315025500196156</v>
+        <v>-0.01927368634611482</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0194307046319726</v>
+        <v>0.01917336471276518</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02346527613178462</v>
+        <v>0.01045388349514553</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00422984458331195</v>
+        <v>0.004130517162288837</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.03359776014932325</v>
+        <v>0.003862868179623336</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006955656701629172</v>
+        <v>0.00679444477685368</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0332954975406734</v>
+        <v>0.02289628180039149</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07208302575014114</v>
+        <v>0.07211950776840383</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.009857612267251015</v>
+        <v>0.004424778761061843</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07220145350329031</v>
+        <v>0.07219928598496181</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01038819026790583</v>
+        <v>0.004972375690607711</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1442607937028016</v>
+        <v>0.1442390155368077</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.010507880910683</v>
+        <v>0.001548672566371811</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3827565243823006</v>
+        <v>0.3848979836055764</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.004821600771456103</v>
+        <v>0.003347427766032585</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1142630438301114</v>
+        <v>0.1144677795727876</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00858524788391779</v>
+        <v>0.002195389681668436</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01035848080878254</v>
+        <v>0.002480763477532344</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05574103990905283</v>
+        <v>0.05621587388974594</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0110204665807927</v>
+        <v>0.01708191770479428</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02343152702154676</v>
+        <v>0.02353602024758262</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006951340615690249</v>
+        <v>0.01597633136094667</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03052713456590678</v>
+        <v>0.03041578001226061</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001176009408075274</v>
+        <v>0.01648351648351642</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03295571644162561</v>
+        <v>0.03255915610243212</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.009582215408202366</v>
+        <v>0.02979876160990713</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03932268294142285</v>
+        <v>0.03846935650948922</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01927368634611482</v>
+        <v>-0.001654944145635162</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01917336471276518</v>
+        <v>0.01932585795110528</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01045388349514553</v>
+        <v>0.01415541895764405</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004130517162288837</v>
+        <v>0.004136211842326649</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003862868179623336</v>
+        <v>0.03896103896103909</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.00679444477685368</v>
+        <v>0.006932813628296104</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02289628180039149</v>
+        <v>0.01013965946049344</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07211950776840383</v>
+        <v>0.07225936224786142</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004424778761061843</v>
+        <v>0.008810572687224738</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07219928598496181</v>
+        <v>0.07237873344100218</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004972375690607711</v>
+        <v>0.008796041781198305</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1442390155368077</v>
+        <v>0.1441049043595016</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001548672566371811</v>
+        <v>0.009351299609748898</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3848979836055764</v>
+        <v>0.3852307354640256</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003347427766032585</v>
+        <v>0.002194907813871882</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1144677795727876</v>
+        <v>0.1144351943043706</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002195389681668436</v>
+        <v>0.01131799926980648</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002480763477532344</v>
+        <v>0.008010808451419438</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05621587388974594</v>
+        <v>0.05672176165359961</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01708191770479428</v>
+        <v>-0.002134174631158836</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02353602024758262</v>
+        <v>0.02372200705140393</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01597633136094667</v>
+        <v>-0.001553096486119232</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03041578001226061</v>
+        <v>0.03067143602452925</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01648351648351642</v>
+        <v>0.0005791505791505891</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03255915610243212</v>
+        <v>0.03326291578644733</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02979876160990713</v>
+        <v>0.01766253288237496</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03846935650948922</v>
+        <v>0.0381004762559532</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001654944145635162</v>
+        <v>0.007045171985080811</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01932585795110528</v>
+        <v>0.01944366409843281</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01415541895764405</v>
+        <v>-0.004500236854571016</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004136211842326649</v>
+        <v>0.004263211184876654</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03896103896103909</v>
+        <v>-0.009259259259259633</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006932813628296104</v>
+        <v>0.006947455264243434</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01013965946049344</v>
+        <v>-0.006439393939393856</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07225936224786142</v>
+        <v>0.07231669343235211</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008810572687224738</v>
+        <v>0.01200873362445409</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07237873344100218</v>
+        <v>0.07243511596526536</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008796041781198305</v>
+        <v>0.01198910081743865</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1441049043595016</v>
+        <v>0.1442965405488622</v>
       </c>
       <c r="E12" s="1">
-        <v>0.009351299609748898</v>
+        <v>-0.002115552961774347</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3852307354640256</v>
+        <v>0.3830080770746477</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002194907813871882</v>
+        <v>-0.0009636443276391793</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1144351943043706</v>
+        <v>0.1148106456593865</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01131799926980648</v>
+        <v>0.00144404332129966</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.008010808451419438</v>
+        <v>0.001772390575934812</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05672176165359961</v>
+        <v>0.05650056643735531</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002134174631158836</v>
+        <v>-0.007811047052259656</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02372200705140393</v>
+        <v>0.02364325939547178</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001553096486119232</v>
+        <v>0.003499902780478292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03067143602452925</v>
+        <v>0.03063490239217167</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0005791505791505891</v>
+        <v>0.01447038394752065</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03326291578644733</v>
+        <v>0.03379053310785295</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01766253288237496</v>
+        <v>-0.01477104874446078</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0381004762559532</v>
+        <v>0.03830101630354475</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007045171985080811</v>
+        <v>0.004732510288065761</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01944366409843281</v>
+        <v>0.01932191702103207</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004500236854571016</v>
+        <v>-0.008327385201047033</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004263211184876654</v>
+        <v>0.00421626414041079</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.009259259259259633</v>
+        <v>0.01869158878504695</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006947455264243434</v>
+        <v>0.006890505196447043</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006439393939393856</v>
+        <v>-0.01372474266107504</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07231669343235211</v>
+        <v>0.07305564220861312</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01200873362445409</v>
+        <v>0.001618122977346426</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07243511596526536</v>
+        <v>0.07317385522189568</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01198910081743865</v>
+        <v>0.001077005923532548</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1442965405488622</v>
+        <v>0.1437365163281724</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002115552961774347</v>
+        <v>-0.002558666569193568</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3830080770746477</v>
+        <v>0.3819620076510089</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0009636443276391793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1148106456593865</v>
+        <v>0.1147730145960234</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00144404332129966</v>
+        <v>-0.004085556356644982</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001772390575934812</v>
+        <v>-0.001049468862364011</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05650056643735531</v>
+        <v>0.0561181320866728</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007811047052259656</v>
+        <v>-0.002905342080599782</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02364325939547178</v>
+        <v>0.02375093437084382</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003499902780478292</v>
+        <v>-0.008913001356326222</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03063490239217167</v>
+        <v>0.03111085106145185</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01447038394752065</v>
+        <v>-0.002662609357169998</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03379053310785295</v>
+        <v>0.0333263865011436</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01477104874446078</v>
+        <v>-0.02548725637181415</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03830101630354475</v>
+        <v>0.03852270463625445</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004732510288065761</v>
+        <v>-0.03297153389309859</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01932191702103207</v>
+        <v>0.0191811459906369</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008327385201047033</v>
+        <v>-0.02327255278310925</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00421626414041079</v>
+        <v>0.004299585096612467</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01869158878504695</v>
+        <v>0.007798165137614443</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006890505196447043</v>
+        <v>0.006803074400572753</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01372474266107504</v>
+        <v>-0.00676459219172787</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07305564220861312</v>
+        <v>0.07325072958173716</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001618122977346426</v>
+        <v>0.001077005923532548</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07317385522189568</v>
+        <v>0.07332962105139977</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001077005923532548</v>
+        <v>0.001075847229693228</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1437365163281724</v>
+        <v>0.1435193616102275</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002558666569193568</v>
+        <v>-0.002418645558487142</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3819620076510089</v>
+        <v>0.3823632860137916</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>-0.002981410031567933</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1147730145960234</v>
+        <v>0.1144241875986554</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004085556356644982</v>
+        <v>-0.01206563706563701</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001049468862364011</v>
+        <v>-0.005745928707093673</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0561181320866728</v>
+        <v>0.05627846174496822</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002905342080599782</v>
+        <v>0.01085628348528989</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02375093437084382</v>
+        <v>0.0236752787242526</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008913001356326222</v>
+        <v>0.01388074291300079</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03111085106145185</v>
+        <v>0.03120733011226995</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002662609357169998</v>
+        <v>0.003623188405797118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0333263865011436</v>
+        <v>0.03266467725116823</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02548725637181415</v>
+        <v>0.001538461538461489</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03852270463625445</v>
+        <v>0.03746783950931572</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.03297153389309859</v>
+        <v>-0.00529436679373152</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0191811459906369</v>
+        <v>0.0188430224215899</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02327255278310925</v>
+        <v>-0.002456398919184588</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004299585096612467</v>
+        <v>0.004358155622721655</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007798165137614443</v>
+        <v>0.02548930359581258</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006803074400572753</v>
+        <v>0.006796104307439414</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00676459219172787</v>
+        <v>0.009729519361743488</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07325072958173716</v>
+        <v>0.07375340284605879</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001077005923532548</v>
+        <v>0.004303388918773576</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07332962105139977</v>
+        <v>0.07383275024019118</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001075847229693228</v>
+        <v>0.004836109618484796</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1435193616102275</v>
+        <v>0.1439996508714659</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002418645558487142</v>
+        <v>0.008228638601131211</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3823632860137916</v>
+        <v>0.3834264452962534</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002981410031567933</v>
+        <v>0.004133685136323617</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1144241875986554</v>
+        <v>0.1136968810523051</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01206563706563701</v>
+        <v>0.004030288226673173</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.005745928707093673</v>
+        <v>0.004938052828172612</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05627846174496822</v>
+        <v>0.05660989403245811</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01085628348528989</v>
+        <v>-0.0005579059928402241</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0236752787242526</v>
+        <v>0.02388595905395758</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01388074291300079</v>
+        <v>-0.0001928268414963519</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03120733011226995</v>
+        <v>0.03116649833366781</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003623188405797118</v>
+        <v>-0.01064031920957631</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03266467725116823</v>
+        <v>0.03255417635815121</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001538461538461489</v>
+        <v>0.002304147465437945</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03746783950931572</v>
+        <v>0.0370863367339889</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00529436679373152</v>
+        <v>-0.007025761124121677</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0188430224215899</v>
+        <v>0.01870437325841144</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002456398919184588</v>
+        <v>0.006156119182467279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004358155622721655</v>
+        <v>0.00444728106566303</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02548930359581258</v>
+        <v>0.002219263204615851</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006796104307439414</v>
+        <v>0.00682850760459401</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009729519361743488</v>
+        <v>0.006937752938909192</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07375340284605879</v>
+        <v>0.07370682423074014</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004303388918773576</v>
+        <v>0.0005356186395286677</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07383275024019118</v>
+        <v>0.07382526047749548</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004836109618484796</v>
+        <v>0.0005347593582889498</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1439996508714659</v>
+        <v>0.1444711657087587</v>
       </c>
       <c r="E12" s="1">
-        <v>0.008228638601131211</v>
+        <v>0.003206295999417019</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3834264452962534</v>
+        <v>0.3831195449416208</v>
       </c>
       <c r="E13" s="1">
-        <v>0.004133685136323617</v>
+        <v>0.0003503547341683344</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1136968810523051</v>
+        <v>0.1135941782004928</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004030288226673173</v>
+        <v>0.004622308721566881</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004938052828172612</v>
+        <v>0.0008204999983552064</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05660989403245811</v>
+        <v>0.05653192658765117</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0005579059928402241</v>
+        <v>0.01009443178117864</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02388595905395758</v>
+        <v>0.02386177461388565</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0001928268414963519</v>
+        <v>0.006171648987463918</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03116649833366781</v>
+        <v>0.03080959756799899</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01064031920957631</v>
+        <v>0.009410409064720682</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03255417635815121</v>
+        <v>0.03260243568267226</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002304147465437945</v>
+        <v>0.009578544061302763</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0370863367339889</v>
+        <v>0.03679558621270016</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007025761124121677</v>
+        <v>0.002680102915951998</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01870437325841144</v>
+        <v>0.01880409085290969</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006156119182467279</v>
+        <v>0.004650024473813019</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00444728106566303</v>
+        <v>0.004453496658891345</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002219263204615851</v>
+        <v>0.001771479185119551</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.00682850760459401</v>
+        <v>0.006870245067229786</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006937752938909192</v>
+        <v>0.00535885167464123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07370682423074014</v>
+        <v>0.07368584374498702</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0005356186395286677</v>
+        <v>0.002141327623126132</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07382526047749548</v>
+        <v>0.07380418289447041</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0005347593582889498</v>
+        <v>0.001068947087119021</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1444711657087587</v>
+        <v>0.1448155618611329</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003206295999417019</v>
+        <v>0.003704510786664006</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3831195449416208</v>
+        <v>0.382939570770756</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0003503547341683344</v>
+        <v>0.0009631380789771882</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1135941782004928</v>
+        <v>0.1140256874847145</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004622308721566881</v>
+        <v>0.005448601525608554</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0008204999983552064</v>
+        <v>0.003314153625254113</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05653192658765117</v>
+        <v>0.05691396264841002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01009443178117864</v>
+        <v>-0.002763194252555889</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02386177461388565</v>
+        <v>0.02392973429535421</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006171648987463918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03080959756799899</v>
+        <v>0.03099680032606139</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009410409064720682</v>
+        <v>0.01046423135464236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03260243568267226</v>
+        <v>0.03280599544064484</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009578544061302763</v>
+        <v>-0.01821631878557872</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03679558621270016</v>
+        <v>0.03677233300984934</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002680102915951998</v>
+        <v>-0.01892440928044481</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01880409085290969</v>
+        <v>0.01882912771371076</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004650024473813019</v>
+        <v>-0.004384896467722221</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004453496658891345</v>
+        <v>0.004446649057429659</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001771479185119551</v>
+        <v>-0.002652519893899252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006870245067229786</v>
+        <v>0.006884246241873857</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00535885167464123</v>
+        <v>0.001142204454597451</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07368584374498702</v>
+        <v>0.07359970853676676</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002141327623126132</v>
+        <v>0.008547008547008739</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07380418289447041</v>
+        <v>0.07363902462038682</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001068947087119021</v>
+        <v>0.009610250934329878</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1448155618611329</v>
+        <v>0.1448719049232255</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003704510786664006</v>
+        <v>0.009263279779997191</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.382939570770756</v>
+        <v>0.382042247752922</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0009631380789771882</v>
+        <v>0.003673897830650752</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1140256874847145</v>
+        <v>0.1142682654333648</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005448601525608554</v>
+        <v>0.009995183044315903</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003314153625254113</v>
+        <v>0.004011551065367547</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05691396264841002</v>
+        <v>0.0565299256305414</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002763194252555889</v>
+        <v>0.003602105846494785</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,7 +617,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02392973429535421</v>
+        <v>0.02383412249586383</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03099680032606139</v>
+        <v>0.03119601361427737</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01046423135464236</v>
+        <v>0.00734324985878354</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03280599544064484</v>
+        <v>0.03207970160845573</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01821631878557872</v>
+        <v>0.006957866254348577</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03677233300984934</v>
+        <v>0.03593229409710778</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01892440928044481</v>
+        <v>0.005231037489101809</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01882912771371076</v>
+        <v>0.01867166161406852</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004384896467722221</v>
+        <v>0.002446782481037468</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004446649057429659</v>
+        <v>0.004417134671048122</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002652519893899252</v>
+        <v>0.01196808510638303</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006884246241873857</v>
+        <v>0.006864571877967517</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001142204454597451</v>
+        <v>0.003612854154782186</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07359970853676676</v>
+        <v>0.07393218314662106</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008547008547008739</v>
+        <v>-0.001588983050847426</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07363902462038682</v>
+        <v>0.07404966013255318</v>
       </c>
       <c r="E11" s="1">
-        <v>0.009610250934329878</v>
+        <v>-0.001586462189317794</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1448719049232255</v>
+        <v>0.1456296929608443</v>
       </c>
       <c r="E12" s="1">
-        <v>0.009263279779997191</v>
+        <v>-0.001720923562311794</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.382042247752922</v>
+        <v>0.3819137653658266</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003673897830650752</v>
+        <v>-0.00113299633955033</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1142682654333648</v>
+        <v>0.1149492727848246</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009995183044315903</v>
+        <v>-0.004833671157744024</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004011551065367547</v>
+        <v>-0.0005066782403252423</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0565299256305414</v>
+        <v>0.0567623126348397</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003602105846494785</v>
+        <v>0.00184060371801964</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02383412249586383</v>
+        <v>0.02384620484897514</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.001916810427448956</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03119601361427737</v>
+        <v>0.03144102421967067</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00734324985878354</v>
+        <v>0.001869158878504695</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03207970160845573</v>
+        <v>0.03231928335934787</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006957866254348577</v>
+        <v>0.0007677543186179747</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03593229409710778</v>
+        <v>0.03613856790059093</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005231037489101809</v>
+        <v>0.02580225498699051</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01867166161406852</v>
+        <v>0.01872683558870062</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002446782481037468</v>
+        <v>0.002440810349036093</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004417134671048122</v>
+        <v>0.004472265314237267</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01196808510638303</v>
+        <v>-0.0008760402978537085</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006864571877967517</v>
+        <v>0.006892865039726762</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003612854154782186</v>
+        <v>0.006062902614626831</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07393218314662106</v>
+        <v>0.07385212542564387</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001588983050847426</v>
+        <v>-0.0005305039787797394</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07404966013255318</v>
+        <v>0.07396966196478283</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001586462189317794</v>
+        <v>-0.0005296610169490679</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1456296929608443</v>
+        <v>0.1454527731460037</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001720923562311794</v>
+        <v>-0.004058324953311265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3819137653658266</v>
+        <v>0.3816744446036121</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00113299633955033</v>
+        <v>-0.00174504842509382</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1149492727848246</v>
+        <v>0.1144516359538684</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004833671157744024</v>
+        <v>-0.0004145470055568756</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0005066782403252423</v>
+        <v>-0.0001323330834550607</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0567623126348397</v>
+        <v>0.05687431591211282</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00184060371801964</v>
+        <v>0.001699430461142848</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02384620484897514</v>
+        <v>0.02389507561211988</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001916810427448956</v>
+        <v>0.002869714941649004</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03144102421967067</v>
+        <v>0.03150396150560723</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001869158878504695</v>
+        <v>0.005223880597014841</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03231928335934787</v>
+        <v>0.03234837738924633</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0007677543186179747</v>
+        <v>0.003068661296509401</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03613856790059093</v>
+        <v>0.03707593081667359</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02580225498699051</v>
+        <v>0.005072923272035235</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01872683558870062</v>
+        <v>0.01877502880026332</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002440810349036093</v>
+        <v>0.00243486729973208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004472265314237267</v>
+        <v>0.004468938818052866</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008760402978537085</v>
+        <v>0.004822446295484673</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006892865039726762</v>
+        <v>0.006935573615040398</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006062902614626831</v>
+        <v>-0.0003766478342750457</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07385212542564387</v>
+        <v>0.07382271576687069</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0005305039787797394</v>
+        <v>0.00424628450106157</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07396966196478283</v>
+        <v>0.07394026786204086</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0005296610169490679</v>
+        <v>0.003179650238473775</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1454527731460037</v>
+        <v>0.1448816511628515</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.004058324953311265</v>
+        <v>-0.001550611229310217</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3816744446036121</v>
+        <v>0.3810588309052295</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00174504842509382</v>
+        <v>-8.740494711989566E-05</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1144516359538684</v>
+        <v>0.1144193318338911</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0004145470055568756</v>
+        <v>0.004674577490111131</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0001323330834550607</v>
+        <v>0.001507279086959912</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05687431591211282</v>
+        <v>0.05770562316407889</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001699430461142848</v>
+        <v>-0.002817925643123331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02389507561211988</v>
+        <v>0.02091376416281997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002869714941649004</v>
+        <v>-0.003950338600451242</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03150396150560723</v>
+        <v>0.02861938732689887</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005223880597014841</v>
+        <v>-0.0007331378299120228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03234837738924633</v>
+        <v>0.03096543222828367</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003068661296509401</v>
+        <v>-0.005039596832253412</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03707593081667359</v>
+        <v>0.03134179605539236</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005072923272035235</v>
+        <v>-0.00585774058577393</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01877502880026332</v>
+        <v>0.0191899653797734</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00243486729973208</v>
+        <v>-0.004544367376225877</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004468938818052866</v>
+        <v>0.01033164603441041</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004822446295484673</v>
+        <v>-0.00621945801865853</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006935573615040398</v>
+        <v>0.01043721149811162</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0003766478342750457</v>
+        <v>-0.003580851865812473</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07382271576687069</v>
+        <v>0.07030069765002096</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00424628450106157</v>
+        <v>-0.002126528442317865</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07394026786204086</v>
+        <v>0.07037544586655475</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003179650238473775</v>
+        <v>-0.001593202336696575</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1448816511628515</v>
+        <v>0.1473457826269408</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001550611229310217</v>
+        <v>0.008828764684941426</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3810588309052295</v>
+        <v>0.3921343894250944</v>
       </c>
       <c r="E13" s="1">
-        <v>-8.740494711989566E-05</v>
+        <v>0.003130162594556785</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1144193318338911</v>
+        <v>0.1103388585816198</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004674577490111131</v>
+        <v>0.005348229141906469</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001507279086959912</v>
+        <v>0.002062132815778162</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05770562316407889</v>
+        <v>0.05742459586524589</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002817925643123331</v>
+        <v>0.004421148587055557</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02091376416281997</v>
+        <v>0.02078827951958594</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003950338600451242</v>
+        <v>0.003210576015108435</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02861938732689887</v>
+        <v>0.02853955302254518</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007331378299120228</v>
+        <v>0.006969919295671145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03096543222828367</v>
+        <v>0.0307459766467203</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005039596832253412</v>
+        <v>-0.01555716353111436</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03134179605539236</v>
+        <v>0.03109408381399823</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00585774058577393</v>
+        <v>-0.01999158249158262</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0191899653797734</v>
+        <v>0.01906344776593065</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004544367376225877</v>
+        <v>-0.01681883709754917</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01033164603441041</v>
+        <v>0.01024625964737791</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00621945801865853</v>
+        <v>-0.001341081805990241</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01043721149811162</v>
+        <v>0.01037843567705863</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003580851865812473</v>
+        <v>-0.000945715906941369</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07030069765002096</v>
+        <v>0.07000683781935725</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002126528442317865</v>
+        <v>0.004794885455514208</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07037544586655475</v>
+        <v>0.07011872940883945</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001593202336696575</v>
+        <v>0.00478723404255299</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1473457826269408</v>
+        <v>0.1483407655085996</v>
       </c>
       <c r="E12" s="1">
-        <v>0.008828764684941426</v>
+        <v>0.005999011927447118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3921343894250944</v>
+        <v>0.3925523387632381</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003130162594556785</v>
+        <v>0.003553783479240735</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1103388585816198</v>
+        <v>0.110700696541503</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005348229141906469</v>
+        <v>0.01137250265988898</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002062132815778162</v>
+        <v>0.003290659669625606</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05742459586524589</v>
+        <v>0.05778225121240245</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004421148587055557</v>
+        <v>0.001538322323771713</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02078827951958594</v>
+        <v>0.02086639390334767</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003210576015108435</v>
+        <v>0.001503476790077007</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02853955302254518</v>
+        <v>0.02858001856184886</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006969919295671145</v>
+        <v>0.004024881083058984</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0307459766467203</v>
+        <v>0.03019960523391851</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01555716353111436</v>
+        <v>0.002207505518763808</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03109408381399823</v>
+        <v>0.03083619821963111</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01999158249158262</v>
+        <v>-0.009325985587113172</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01906344776593065</v>
+        <v>0.01866642266114168</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01681883709754917</v>
+        <v>-0.01249999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01024625964737791</v>
+        <v>0.01030770839596868</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001341081805990241</v>
+        <v>0.01198402130492671</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01037843567705863</v>
+        <v>0.01043515771035673</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.000945715906941369</v>
+        <v>-0.0005636978579481866</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.07000683781935725</v>
+        <v>0.0694422295133397</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004794885455514208</v>
+        <v>-0.005364806866952843</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.07011872940883945</v>
+        <v>0.0695539927582646</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00478723404255299</v>
+        <v>-0.005356186395286566</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1483407655085996</v>
+        <v>0.1488189696866708</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005999011927447118</v>
+        <v>-0.007659335254022959</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3925523387632381</v>
+        <v>0.3929177396373904</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003553783479240735</v>
+        <v>-0.003113917481186834</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.110700696541503</v>
+        <v>0.1115933125057189</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01137250265988898</v>
+        <v>-0.0008199601733630546</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003290659669625606</v>
+        <v>-0.003301264035764251</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05778225121240245</v>
+        <v>0.05872398512175927</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001538322323771713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02086639390334767</v>
+        <v>0.02020122853252084</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001503476790077007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02858001856184886</v>
+        <v>0.02768737406888534</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004024881083058984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03019960523391851</v>
+        <v>0.02914580741234215</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002207505518763808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03083619821963111</v>
+        <v>0.02908376031532988</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009325985587113172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01866642266114168</v>
+        <v>0.01800868006230835</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01249999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01030770839596868</v>
+        <v>0.01081252306355909</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01198402130492671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01043515771035673</v>
+        <v>0.01059437853301069</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0005636978579481866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0694422295133397</v>
+        <v>0.0664524409001401</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005364806866952843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0695539927582646</v>
+        <v>0.06656412567476218</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005356186395286566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1488189696866708</v>
+        <v>0.1533438486834586</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.007659335254022959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3929177396373904</v>
+        <v>0.3951890640358698</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003113917481186834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1115933125057189</v>
+        <v>0.1141927835960538</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0008199601733630546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003301264035764251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -603,7 +603,7 @@
         <v>0.05872398512175927</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.001334638313017278</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -620,7 +620,7 @@
         <v>0.02020122853252084</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.003491755577109679</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.02768737406888534</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.0009435742592942553</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -654,7 +654,7 @@
         <v>0.02914580741234215</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.01371428571428568</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -671,7 +671,7 @@
         <v>0.02908376031532988</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.01549517179429594</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -688,7 +688,7 @@
         <v>0.01800868006230835</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.002792586951002707</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -705,7 +705,7 @@
         <v>0.01081252306355909</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.003382663847779965</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -722,7 +722,7 @@
         <v>0.01059437853301069</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.00850749029036435</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -739,7 +739,7 @@
         <v>0.0664524409001401</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.003921568627450966</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -756,7 +756,7 @@
         <v>0.06656412567476218</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.003355704697986628</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -773,7 +773,7 @@
         <v>0.1533438486834586</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.0088592067602562</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -790,7 +790,7 @@
         <v>0.3951890640358698</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.002921966311447255</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -807,7 +807,7 @@
         <v>0.1141927835960538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.0002287805994050096</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.003252574138116859</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05872398512175927</v>
+        <v>0.05861172143287275</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001334638313017278</v>
+        <v>-0.008441443042473851</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02020122853252084</v>
+        <v>0.02020604462672721</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003491755577109679</v>
+        <v>-0.01449835685289003</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02768737406888534</v>
+        <v>0.02762365118890679</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0009435742592942553</v>
+        <v>-0.01904223227752633</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02914580741234215</v>
+        <v>0.02865289780772423</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01371428571428568</v>
+        <v>-0.00656624179219778</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02908376031532988</v>
+        <v>0.02943866673176765</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01549517179429594</v>
+        <v>-0.0192392746572313</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01800868006230835</v>
+        <v>0.01790016763504386</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002792586951002707</v>
+        <v>-0.0162932790224033</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01081252306355909</v>
+        <v>0.01074101199485702</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003382663847779965</v>
+        <v>-0.01739499363597796</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01059437853301069</v>
+        <v>0.01064987061178653</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00850749029036435</v>
+        <v>-0.01192004401247015</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0664524409001401</v>
+        <v>0.06649675308822811</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003921568627450966</v>
+        <v>-0.001116071428571508</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06656412567476218</v>
+        <v>0.06657096821444265</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003355704697986628</v>
+        <v>-0.0005574136008918984</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1533438486834586</v>
+        <v>0.1542008039972007</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0088592067602562</v>
+        <v>0.003917860037827792</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3951890640358698</v>
+        <v>0.3950588350178214</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002921966311447255</v>
+        <v>0.002570694087403513</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1141927835960538</v>
+        <v>0.1138486076526211</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0002287805994050096</v>
+        <v>-0.005032021957913968</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003252574138116859</v>
+        <v>-0.001738196377130019</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05861172143287275</v>
+        <v>0.05821814849958101</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008441443042473851</v>
+        <v>0.01209785823102427</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02020604462672721</v>
+        <v>0.01994776331106263</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01449835685289003</v>
+        <v>0.01726167124362488</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02762365118890679</v>
+        <v>0.0271448182313218</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01904223227752633</v>
+        <v>0.01825869690563131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02865289780772423</v>
+        <v>0.02851431943941751</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00656624179219778</v>
+        <v>0.01905132192846026</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02943866673176765</v>
+        <v>0.02892256122811651</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0192392746572313</v>
+        <v>0.03720405862457721</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01790016763504386</v>
+        <v>0.01763917556027273</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0162932790224033</v>
+        <v>0.02148033126293969</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01074101199485702</v>
+        <v>0.01057254932649887</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01739499363597796</v>
+        <v>0.002590673575129543</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01064987061178653</v>
+        <v>0.0105412464417424</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01192004401247015</v>
+        <v>0.01373422420193005</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06649675308822811</v>
+        <v>0.06653819441047865</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001116071428571508</v>
+        <v>0.003351955307262733</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06657096821444265</v>
+        <v>0.06664971093742358</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0005574136008918984</v>
+        <v>0.003346346904628872</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1542008039972007</v>
+        <v>0.1550744910835689</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003917860037827792</v>
+        <v>-0.01406271026779704</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3950588350178214</v>
+        <v>0.3967640642882996</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002570694087403513</v>
+        <v>-0.005042735042735114</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1138486076526211</v>
+        <v>0.1134729572422159</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005032021957913968</v>
+        <v>-0.00295517241379295</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001738196377130019</v>
+        <v>-0.0003562007427913016</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05821814849958101</v>
+        <v>0.0590701619533236</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01209785823102427</v>
+        <v>-0.005562668314864627</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01994776331106263</v>
+        <v>0.02036070325595223</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01726167124362488</v>
+        <v>-0.005571565802113154</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0271448182313218</v>
+        <v>0.02764830943574839</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01825869690563131</v>
+        <v>0.0005659309564234327</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02851431943941751</v>
+        <v>0.02898287106126661</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01905132192846026</v>
+        <v>-0.006883365200764713</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02892256122811651</v>
+        <v>0.03013358003490593</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03720405862457721</v>
+        <v>-0.0108178277801817</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01763917556027273</v>
+        <v>0.01803581475736992</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02148033126293969</v>
+        <v>-0.00657894736842124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01057254932649887</v>
+        <v>0.01072017430796102</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002590673575129543</v>
+        <v>-0.0119199659429543</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0105412464417424</v>
+        <v>0.01074560073854001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01373422420193005</v>
+        <v>-0.007280669821623564</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06653819441047865</v>
+        <v>0.06670526268436608</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003351955307262733</v>
+        <v>0.001114206128133732</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06664971093742358</v>
+        <v>0.06674242439059692</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003346346904628872</v>
+        <v>0.001670378619153423</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1550744910835689</v>
+        <v>0.1526524656792084</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01406271026779704</v>
+        <v>-0.007653409867432015</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3967640642882996</v>
+        <v>0.3944486930488703</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005042735042735114</v>
+        <v>-0.003094112591319309</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1134729572422159</v>
+        <v>0.1137539386518907</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00295517241379295</v>
+        <v>-0.005616689591930291</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0003562007427913016</v>
+        <v>-0.004118429794039313</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/RPAR_holdings.xlsx
+++ b/RPAR_holdings.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -600,10 +600,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0590701619533236</v>
+        <v>0.05898449774798366</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005562668314864627</v>
+        <v>-0.00137624861265262</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,10 +617,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02036070325595223</v>
+        <v>0.02033099402953807</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005571565802113154</v>
+        <v>0.002511591962905735</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +634,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02764830943574839</v>
+        <v>0.02777835969414475</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0005659309564234327</v>
+        <v>0.004901960784313708</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,10 +651,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02898287106126661</v>
+        <v>0.02890240389651199</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006883365200764713</v>
+        <v>-0.02079322294955721</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,10 +668,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03013358003490593</v>
+        <v>0.02993086833560281</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0108178277801817</v>
+        <v>0.001531058617672665</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,10 +685,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01803581475736992</v>
+        <v>0.01799125379700429</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00657894736842124</v>
+        <v>-0.006622516556291314</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +702,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01072017430796102</v>
+        <v>0.01063619461610977</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0119199659429543</v>
+        <v>-0.02455838000861688</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,10 +719,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01074560073854001</v>
+        <v>0.01071148004608778</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.007280669821623564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>0.06670526268436608</v>
+        <v>0.06705575049753849</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001114206128133732</v>
+        <v>0.01057317751808595</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>0.06674242439059692</v>
+        <v>0.06713038127160363</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001670378619153423</v>
+        <v>0.01000555864369113</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,10 +770,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1526524656792084</v>
+        <v>0.1521106106630355</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.007653409867432015</v>
+        <v>0.01136207134003575</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3944486930488703</v>
+        <v>0.3948544045249816</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003094112591319309</v>
+        <v>0.004310716441072504</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1137539386518907</v>
+        <v>0.1135828008798575</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005616689591930291</v>
+        <v>0.006916426512968199</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -815,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004118429794039313</v>
+        <v>0.004767204357389643</v>
       </c>
     </row>
     <row r="18" spans="1:1">
